--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thatgurjot/Documents/GitHub/buzee-tauri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A07D1A8-BBE2-3F49-B945-8225506F6B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD30BFC0-6ECA-2342-8E01-BDED2273490A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="700" windowWidth="26160" windowHeight="16260" xr2:uid="{51E9F0F4-B5D3-994B-BCB8-C4C4B6ADE61B}"/>
+    <workbookView xWindow="720" yWindow="700" windowWidth="26160" windowHeight="16260" activeTab="1" xr2:uid="{51E9F0F4-B5D3-994B-BCB8-C4C4B6ADE61B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="74">
   <si>
     <t>Item</t>
   </si>
@@ -139,6 +140,114 @@
   </si>
   <si>
     <t>Make app show on all desktops/workspaces (wherever the cursor is)</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>last_synced</t>
+  </si>
+  <si>
+    <t>sent_or_received_at</t>
+  </si>
+  <si>
+    <t>last_modified</t>
+  </si>
+  <si>
+    <t>last_opened</t>
+  </si>
+  <si>
+    <t>is_pinned</t>
+  </si>
+  <si>
+    <t>is_read</t>
+  </si>
+  <si>
+    <t>is_starred</t>
+  </si>
+  <si>
+    <t>is_archived</t>
+  </si>
+  <si>
+    <t>thread_id</t>
+  </si>
+  <si>
+    <t>attachment_count</t>
+  </si>
+  <si>
+    <t>word_count</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>saved_at</t>
+  </si>
+  <si>
+    <t>read_at</t>
+  </si>
+  <si>
+    <t>is_favorite</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>last_visit_time</t>
+  </si>
+  <si>
+    <t>is_bookmarked</t>
+  </si>
+  <si>
+    <t>frecency_rank</t>
+  </si>
+  <si>
+    <t>frecency_last_accessed</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -208,6 +317,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0FD4B18B-1AA3-434A-9292-FAE9F0667C93}" name="Table2" displayName="Table2" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{A97EF9AC-4214-4744-BB39-2537854AF68D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EDCD9A0D-662B-FB47-98A2-8CA023BF4E2E}" name="Attribute"/>
+    <tableColumn id="2" xr3:uid="{64E8F724-9339-9641-AB8B-5D36E3395E5B}" name="document"/>
+    <tableColumn id="3" xr3:uid="{01BE0B37-27C4-4147-9584-89733C5ADF54}" name="email"/>
+    <tableColumn id="4" xr3:uid="{BD915D35-99A5-5946-BB66-6FC90BD4F82A}" name="article"/>
+    <tableColumn id="5" xr3:uid="{AAA2F982-1AE9-1344-ABC2-488B68E8D061}" name="website"/>
+    <tableColumn id="6" xr3:uid="{7C7CEF46-BB50-A34A-A15D-A74351B4F84A}" name="metadata"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF26154-DFD2-824E-8E9E-7952FE4ED105}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -797,4 +921,364 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA6C302-5A76-F143-B95F-CAA6A6EB7FC7}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>